--- a/MedicalLink/Templates/BC_BenhNhanSuDungDichVu.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanSuDungDichVu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="CNNK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$W$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNNK!$A$1:$Y$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BENHKEMTHEO_NAME</t>
+  </si>
+  <si>
+    <t>Đối tượng thanh toán</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIDOITUONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THUOCKHOBANLE</t>
+  </si>
+  <si>
+    <t>Đơn mua ngoài</t>
   </si>
 </sst>
 </file>
@@ -441,6 +453,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,9 +476,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -766,16 +778,18 @@
     <col min="12" max="12" width="20.42578125" style="16" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="20.42578125" style="16" customWidth="1"/>
-    <col min="19" max="20" width="15.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="29.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27" style="1" customWidth="1"/>
+    <col min="18" max="20" width="20.42578125" style="16" customWidth="1"/>
+    <col min="21" max="22" width="15.5703125" style="1" customWidth="1"/>
     <col min="23" max="23" width="29.5703125" style="1" customWidth="1"/>
-    <col min="24" max="26" width="15.5703125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="29.5703125" style="1" customWidth="1"/>
+    <col min="26" max="28" width="15.5703125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -788,41 +802,41 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="25.5">
-      <c r="D2" s="28" t="s">
+    <row r="2" spans="1:25" ht="25.5">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:23" ht="18.75">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+    <row r="3" spans="1:25" ht="18.75">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75">
-      <c r="D4" s="29" t="s">
+    <row r="4" spans="1:25" ht="15.75">
+      <c r="D4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="28.5">
+    <row r="7" spans="1:25" s="15" customFormat="1" ht="28.5">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -868,32 +882,38 @@
       <c r="O7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="S7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="T7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="V7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="X7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -939,13 +959,13 @@
       <c r="O8" s="5">
         <v>15</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="5">
         <v>16</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="5">
         <v>17</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="5">
         <v>18</v>
       </c>
       <c r="S8" s="5">
@@ -963,8 +983,14 @@
       <c r="W8" s="5">
         <v>23</v>
       </c>
+      <c r="X8" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" s="25" customFormat="1" ht="45">
+    <row r="9" spans="1:25" s="25" customFormat="1" ht="45">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
@@ -1004,43 +1030,49 @@
       <c r="M9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="28" t="s">
         <v>9</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="S9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="T9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="V9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="W9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="X9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="Y9" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:25" ht="24.75" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -1056,30 +1088,32 @@
         <v>0</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25">
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="T12" s="30" t="s">
+      <c r="V12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="V12:Y12"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="A10:C10"/>
   </mergeCells>

--- a/MedicalLink/Templates/BC_BenhNhanSuDungDichVu.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanSuDungDichVu.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -44,9 +44,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -192,6 +189,12 @@
   </si>
   <si>
     <t>Đơn mua ngoài</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,7 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +467,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +475,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -760,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -775,12 +777,12 @@
     <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="41.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="15" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="29.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="27" style="1" customWidth="1"/>
-    <col min="18" max="20" width="20.42578125" style="16" customWidth="1"/>
+    <col min="18" max="20" width="20.42578125" style="15" customWidth="1"/>
     <col min="21" max="22" width="15.5703125" style="1" customWidth="1"/>
     <col min="23" max="23" width="29.5703125" style="1" customWidth="1"/>
     <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
@@ -790,8 +792,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
+      <c r="A1" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
@@ -803,114 +805,115 @@
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="25.5">
-      <c r="D2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:25" ht="18.75">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="17"/>
+    <row r="3" spans="1:25" ht="18.75" hidden="1">
+      <c r="C3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:25" ht="15.75">
-      <c r="D4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="18"/>
+      <c r="E4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="17"/>
     </row>
-    <row r="7" spans="1:25" s="15" customFormat="1" ht="28.5">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:25" s="14" customFormat="1" ht="28.5">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="U7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="Y7" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -947,7 +950,7 @@
       <c r="K8" s="5">
         <v>11</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>12</v>
       </c>
       <c r="M8" s="5">
@@ -990,89 +993,89 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="25" customFormat="1" ht="45">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:25" s="24" customFormat="1" ht="45">
+      <c r="A9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="O9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="24" t="s">
+      <c r="S9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="V9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="W9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="X9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="Y9" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="Y9" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -1081,7 +1084,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2">
         <f>SUM(N9:N9)</f>
@@ -1090,9 +1093,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1100,22 +1103,21 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="V12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="V12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:G4"/>
+  <mergeCells count="4">
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="C3:H3"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
